--- a/biology/Biochimie/Glycyl-ARNt_synthétase/Glycyl-ARNt_synthétase.xlsx
+++ b/biology/Biochimie/Glycyl-ARNt_synthétase/Glycyl-ARNt_synthétase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Glycyl-ARNt_synth%C3%A9tase</t>
+          <t>Glycyl-ARNt_synthétase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La glycyl-ARNt synthétase, ou GlyRS, est une ligase qui catalyse la réaction :
 ATP + L-glycine + ARNtGly  
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Glycyl-ARNt_synth%C3%A9tase</t>
+          <t>Glycyl-ARNt_synthétase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,13 +528,15 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contrairement aux autres aminoacyl-ARNt synthétases, GlyRS existe sous deux formes distinctes provenant d'ancêtres différents[2]: 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contrairement aux autres aminoacyl-ARNt synthétases, GlyRS existe sous deux formes distinctes provenant d'ancêtres différents: 
 homodimère pour les eukaryotes, archées et certaines bactéries
-hétérotétramère pour la plupart des bactéries, dont notamment Escherichia coli ainsi que dans les plastes[3].
+hétérotétramère pour la plupart des bactéries, dont notamment Escherichia coli ainsi que dans les plastes.
 La forme hétérotétramérique, notée (αβ)2, est composée de deux sous-unités α et deux sous-unités β. Bien que plus petite, la sous-unité α contient les trois motifs typiques des aminoacyl-ARNt synthétase de classe II et le site d'aminoacylation. Les sous-unités β sont quant à elles responsables de la liaison à l'ARN de transfert.
-Parmi les autres synthétases, seule la phénylalanyl-ARNt synthétase possède également une forme hétérotétramérique[2].
+Parmi les autres synthétases, seule la phénylalanyl-ARNt synthétase possède également une forme hétérotétramérique.
 </t>
         </is>
       </c>
